--- a/biology/Botanique/Solanum_sect._Petota/Solanum_sect._Petota.xlsx
+++ b/biology/Botanique/Solanum_sect._Petota/Solanum_sect._Petota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La section Solanum sect. Petota appartient au genre Solanum, sous-genrePotatoe, dans la famille des Solanaceae. Parmi les quelque 200 espèces qui la composent, figurent les sept espèces  de pommes de terre cultivées et un grand nombre de « pommes de terre sauvages ». Sa distribution s'étend sur le continent américain depuis la vallée du Colorado (États-Unis) au nord jusqu'à l'archipel des Chonos (Chili) au sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de la section Petota sont généralement des plantes herbacées, parfois grimpantes ou des arbrisseaux. Dans la plupart des cas, elles forment des stolons et des tubercules souterrains. Les feuilles sont généralement composées imparipennées. Les folioles intermédiaires sont parfois absentes. Les pétioles et pétiolules peuvent être articulées à la base.
 Les inflorescences se composent de quelques-unes à de très nombreuses fleurs. Les pédoncules de fleurs ne sont pas accompagnés de bractées. La corolle, d'un diamètre de 20 à 35 mm, est généralement en forme de roue, parfois en forme d'étoile. Les anthères, droites, ont de 3 à 8 mm de long. Les étamines sont glabres ou présentent à leur base des trichomes, elles sont plus courtes que les anthères et libres entre elles, exceptionnellement soudées.
@@ -546,9 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Position de la section dans la classification
-La section Petota est classée dans le sous-genre Potatoe du genre Solanum. Des études cladistiques, menées aussi bien au plan morphologique que moléculaire, ont permis de démontrer que la section est monophylétique.
-Le cladogramme suivant indique les relations avec les sections étroitement apparentées à la section Petota[1] :
+          <t>Position de la section dans la classification</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La section Petota est classée dans le sous-genre Potatoe du genre Solanum. Des études cladistiques, menées aussi bien au plan morphologique que moléculaire, ont permis de démontrer que la section est monophylétique.
+Le cladogramme suivant indique les relations avec les sections étroitement apparentées à la section Petota :
        ┌───── Section Lycopersicoides
        │
     ┌──┤  ┌── Section Juglandifolia
@@ -558,9 +577,44 @@
 ─┤  └──────── Section Petota
  │
  └─────────── Section Etuberosum
-Cladogramme selon Peralta-Spooner-Knapp[1].
-Classification interne
-La section Petota regroupe environ 200 espèces[2].
+Cladogramme selon Peralta-Spooner-Knapp.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Solanum_sect._Petota</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_sect._Petota</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification interne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La section Petota regroupe environ 200 espèces.
 </t>
         </is>
       </c>
